--- a/data/trans_dic/P3A$otraSIcobra-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,78</t>
+          <t>2,21; 4,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,35</t>
+          <t>2,35; 4,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 4,08</t>
+          <t>2,54; 4,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,02</t>
+          <t>0,81; 2,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,71</t>
+          <t>2,07; 3,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,93</t>
+          <t>1,45; 2,89</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,07</t>
+          <t>1,63; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,93</t>
+          <t>1,37; 3,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,57</t>
+          <t>1,7; 3,57</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,34</t>
+          <t>2,83; 5,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,63</t>
+          <t>3,35; 5,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,17</t>
+          <t>3,41; 5,01</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,46</t>
+          <t>2,06; 3,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 3,85</t>
+          <t>2,73; 3,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 3,49</t>
+          <t>2,61; 3,5</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que al menos, otra persona que no reside en el hogar y cobra por ello, se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21042</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23445</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>44486</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14019; 29750</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17050; 30791</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34487; 55266</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19973</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26954</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>46927</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9649; 35689</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19871; 35865</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31243; 62173</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18225</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25085</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43310</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11498; 31187</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12801; 37098</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27850; 58543</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35971</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>48401</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>84372</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26241; 50014</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36635; 60748</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>68868; 101262</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>95211</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>123885</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>219096</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>71217; 118540</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>101413; 142650</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>187029; 251003</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>